--- a/men_diaries/Diary 10.xlsx
+++ b/men_diaries/Diary 10.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t xml:space="preserve">(i) The motivations of females to use technology are more likely to be for what it helps them accomplish, whereas for males more likely to be for their interest and enjoyment of technology itself 
 </t>
@@ -582,7 +582,9 @@
         <v>15</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
